--- a/src/java/PhysicalModell/hibavaloszinuseg.xlsx
+++ b/src/java/PhysicalModell/hibavaloszinuseg.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\eclipse-workspace\IER-HF\src\java\PhysicalModell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeno96\Desktop\gecisfos\src\java\PhysicalModell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9ECD88-0038-4405-BE90-7E49AB7D5684}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{04925054-15AA-4232-84F0-40DA649DCFFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
     <sheet name="heatandpressure" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,36 +110,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="hu-HU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -150,17 +119,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Munka1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hibavaloszinuseg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -245,17 +203,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="hu-HU"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Munka1!$A$1:$A$11</c:f>
+              <c:f>Munka1!$A$1:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -288,16 +246,70 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Munka1!$B$1:$B$11</c:f>
+              <c:f>Munka1!$B$1:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -329,6 +341,60 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -407,7 +473,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2017956719"/>
@@ -469,7 +535,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2029315727"/>
@@ -486,6 +552,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -493,7 +560,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -517,7 +583,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="hu-HU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -596,7 +662,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="5"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -631,7 +697,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="hu-HU"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -646,34 +712,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,7 +859,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2017956719"/>
@@ -855,7 +921,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2029315727"/>
@@ -872,6 +938,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -879,7 +946,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -903,7 +969,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="hu-HU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -972,7 +1038,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="5"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1007,7 +1073,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="hu-HU"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1022,34 +1088,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,7 +1235,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2017956719"/>
@@ -1231,7 +1297,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2029315727"/>
@@ -1248,6 +1314,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1255,7 +1322,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1279,7 +1345,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="hu-HU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3376,11 +3442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A0C8AF-ED30-4BC3-AE5B-DA315A5BA864}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3479,6 +3545,150 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3486,11 +3696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387359F7-E07B-41F7-AB2D-BB17D3081D6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,13 +3721,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>60</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -3525,13 +3735,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>150</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>110</v>
@@ -3539,13 +3749,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>200</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
         <v>120</v>
@@ -3553,13 +3763,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>210</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
         <v>110</v>
@@ -3567,13 +3777,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
         <v>220</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
@@ -3581,13 +3791,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
         <v>230</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1">
         <v>110</v>
@@ -3595,13 +3805,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1">
         <v>240</v>
       </c>
       <c r="E8" s="1">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1">
         <v>120</v>
@@ -3609,13 +3819,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1">
         <v>230</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F9" s="1">
         <v>110</v>
@@ -3623,13 +3833,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1">
         <v>240</v>
       </c>
       <c r="E10" s="1">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -3637,13 +3847,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1">
         <v>230</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F11" s="1">
         <v>110</v>
